--- a/doc/Hardware.xlsx
+++ b/doc/Hardware.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Andreas\Documents\Arduino\Zisterne\doc\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Andreas\Documents\Arduino\LevelMeasurement\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="4500" yWindow="0" windowWidth="14220" windowHeight="8280"/>
+    <workbookView xWindow="5625" yWindow="0" windowWidth="14220" windowHeight="8280"/>
   </bookViews>
   <sheets>
     <sheet name="Verkabelung" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="92">
   <si>
     <t>Arduino</t>
   </si>
@@ -178,13 +178,136 @@
   </si>
   <si>
     <t>PoE V- Versorgung max. 12-48V</t>
+  </si>
+  <si>
+    <t>/CS SDCARD</t>
+  </si>
+  <si>
+    <t>SCK ETH+SD</t>
+  </si>
+  <si>
+    <t>MISO ETH+SD</t>
+  </si>
+  <si>
+    <t>MOSI ETH+SD</t>
+  </si>
+  <si>
+    <t>/CS ETH</t>
+  </si>
+  <si>
+    <t>LED Display</t>
+  </si>
+  <si>
+    <t>SCK Display</t>
+  </si>
+  <si>
+    <t>CD Display</t>
+  </si>
+  <si>
+    <t>MOSI Display</t>
+  </si>
+  <si>
+    <t>MISO Display</t>
+  </si>
+  <si>
+    <t>/CS Display</t>
+  </si>
+  <si>
+    <t>/RESET Display</t>
+  </si>
+  <si>
+    <t>TRIG Touch</t>
+  </si>
+  <si>
+    <t>/CS Touch</t>
+  </si>
+  <si>
+    <t>X1</t>
+  </si>
+  <si>
+    <t>Stecker</t>
+  </si>
+  <si>
+    <t>5poliger Hirschmann f</t>
+  </si>
+  <si>
+    <t>ILI9341</t>
+  </si>
+  <si>
+    <t>X2</t>
+  </si>
+  <si>
+    <t>26 poliges Flachbandkabel</t>
+  </si>
+  <si>
+    <t>ETH Shield</t>
+  </si>
+  <si>
+    <t>direkt</t>
+  </si>
+  <si>
+    <t>47R</t>
+  </si>
+  <si>
+    <t>LED</t>
+  </si>
+  <si>
+    <t>VCC</t>
+  </si>
+  <si>
+    <t>/CS</t>
+  </si>
+  <si>
+    <t>3V3</t>
+  </si>
+  <si>
+    <t>C/D</t>
+  </si>
+  <si>
+    <t>RESET</t>
+  </si>
+  <si>
+    <t>T_IRQ</t>
+  </si>
+  <si>
+    <t>T_CS</t>
+  </si>
+  <si>
+    <t>SDO, T_DO</t>
+  </si>
+  <si>
+    <t>SDI, T_DI</t>
+  </si>
+  <si>
+    <t>SCK, T_CLK</t>
+  </si>
+  <si>
+    <t>74LVC245 in</t>
+  </si>
+  <si>
+    <t>74LVC245 out</t>
+  </si>
+  <si>
+    <t>ILI9341 Pin</t>
+  </si>
+  <si>
+    <t>ILI9341 Name</t>
+  </si>
+  <si>
+    <t>GND, /OE</t>
+  </si>
+  <si>
+    <t>DIR, 3V3</t>
+  </si>
+  <si>
+    <t>Display 2,4" 320x240 ILI9341 Touch, Seriell</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -195,6 +318,14 @@
     <font>
       <b/>
       <i/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -222,7 +353,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -254,11 +385,24 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -281,6 +425,23 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -561,20 +722,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F15"/>
+  <dimension ref="A1:I34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="F35" sqref="F35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="8.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="13" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.42578125" style="6"/>
+    <col min="2" max="2" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.7109375" style="6" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -584,28 +747,35 @@
       <c r="C1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="D1" s="13" t="s">
+        <v>65</v>
+      </c>
+      <c r="H1" s="5" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="2">
+      <c r="I1" s="6"/>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" s="12">
         <v>2</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="E2" s="6" t="s">
+      <c r="D2" s="12">
+        <v>5</v>
+      </c>
+      <c r="H2" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="I2" s="4" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <v>3</v>
       </c>
@@ -615,14 +785,17 @@
       <c r="C3" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="E3" s="6" t="s">
+      <c r="D3" s="12">
+        <v>4</v>
+      </c>
+      <c r="H3" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="F3" s="4" t="s">
+      <c r="I3" s="4" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>7</v>
       </c>
@@ -632,14 +805,17 @@
       <c r="C4" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="E4" s="7" t="s">
+      <c r="D4" s="12">
+        <v>3</v>
+      </c>
+      <c r="H4" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="F4" s="6" t="s">
+      <c r="I4" s="6" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>10</v>
       </c>
@@ -649,14 +825,17 @@
       <c r="C5" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="E5" s="6" t="s">
+      <c r="D5" s="12">
+        <v>1</v>
+      </c>
+      <c r="H5" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="F5" s="6" t="s">
+      <c r="I5" s="6" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
         <v>6</v>
       </c>
@@ -666,14 +845,14 @@
       <c r="C6" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="E6" s="6" t="s">
+      <c r="H6" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="F6" s="6" t="s">
+      <c r="I6" s="6" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>7</v>
       </c>
@@ -683,14 +862,14 @@
       <c r="C7" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="E7" s="6" t="s">
+      <c r="H7" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="F7" s="6" t="s">
+      <c r="I7" s="6" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="3">
         <v>5</v>
       </c>
@@ -702,7 +881,7 @@
       </c>
       <c r="E8" s="6"/>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <v>7</v>
       </c>
@@ -713,8 +892,11 @@
         <v>22</v>
       </c>
       <c r="E9" s="6"/>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H9" s="11" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>7</v>
       </c>
@@ -725,8 +907,14 @@
         <v>29</v>
       </c>
       <c r="E10" s="6"/>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H10" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="I10" s="6" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>10</v>
       </c>
@@ -737,8 +925,14 @@
         <v>23</v>
       </c>
       <c r="E11" s="6"/>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H11" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="I11" s="6" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="3">
         <v>8</v>
       </c>
@@ -750,7 +944,7 @@
       </c>
       <c r="E12" s="6"/>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="3">
         <v>9</v>
       </c>
@@ -762,7 +956,7 @@
       </c>
       <c r="E13" s="6"/>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="2"/>
       <c r="B14" s="2" t="s">
         <v>25</v>
@@ -771,7 +965,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="2"/>
       <c r="B15" s="2" t="s">
         <v>26</v>
@@ -779,6 +973,384 @@
       <c r="C15" s="2" t="s">
         <v>27</v>
       </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="D16" s="9"/>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17" s="2">
+        <v>4</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18" s="2">
+        <v>13</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19" s="2">
+        <v>12</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20" s="2">
+        <v>11</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A21" s="2">
+        <v>10</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D22" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="E22" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="F22" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="G22" s="8" t="s">
+        <v>88</v>
+      </c>
+      <c r="H22" s="8" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A23" s="2">
+        <v>37</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="D23" s="2">
+        <v>8</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="F23" s="2"/>
+      <c r="G23" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="H23" s="2">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A24" s="2">
+        <v>52</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="D24" s="2">
+        <v>7</v>
+      </c>
+      <c r="E24" s="2">
+        <v>3</v>
+      </c>
+      <c r="F24" s="2">
+        <v>17</v>
+      </c>
+      <c r="G24" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="H24" s="2">
+        <v>7.1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A25" s="2">
+        <v>40</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="D25" s="2">
+        <v>5</v>
+      </c>
+      <c r="E25" s="2">
+        <v>5</v>
+      </c>
+      <c r="F25" s="2">
+        <v>15</v>
+      </c>
+      <c r="G25" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="H25" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A26" s="2">
+        <v>51</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="D26" s="2">
+        <v>6</v>
+      </c>
+      <c r="E26" s="2">
+        <v>4</v>
+      </c>
+      <c r="F26" s="2">
+        <v>16</v>
+      </c>
+      <c r="G26" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="H26" s="2">
+        <v>6.12</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A27" s="2">
+        <v>50</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="D27" s="2">
+        <v>9</v>
+      </c>
+      <c r="E27" s="2"/>
+      <c r="F27" s="2"/>
+      <c r="G27" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="H27" s="2">
+        <v>9.1300000000000008</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A28" s="2">
+        <v>39</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="D28" s="2">
+        <v>3</v>
+      </c>
+      <c r="E28" s="2">
+        <v>7</v>
+      </c>
+      <c r="F28" s="2">
+        <v>13</v>
+      </c>
+      <c r="G28" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="H28" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A29" s="2">
+        <v>36</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="D29" s="2">
+        <v>4</v>
+      </c>
+      <c r="E29" s="2">
+        <v>6</v>
+      </c>
+      <c r="F29" s="2">
+        <v>14</v>
+      </c>
+      <c r="G29" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="H29" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A30" s="2">
+        <v>20</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="D30" s="2">
+        <v>11</v>
+      </c>
+      <c r="E30" s="2"/>
+      <c r="F30" s="2"/>
+      <c r="G30" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="H30" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A31" s="2">
+        <v>34</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="D31" s="2">
+        <v>10</v>
+      </c>
+      <c r="E31" s="2">
+        <v>2</v>
+      </c>
+      <c r="F31" s="2">
+        <v>18</v>
+      </c>
+      <c r="G31" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="H31" s="2">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A32" s="14"/>
+      <c r="B32" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="D32" s="2">
+        <v>1</v>
+      </c>
+      <c r="E32" s="2"/>
+      <c r="F32" s="2"/>
+      <c r="G32" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="H32" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A33" s="14"/>
+      <c r="B33" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="D33" s="2">
+        <v>2</v>
+      </c>
+      <c r="E33" s="2">
+        <v>10.19</v>
+      </c>
+      <c r="F33" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="G33" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="H33" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A34" s="14"/>
+      <c r="B34" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="D34" s="2">
+        <v>12</v>
+      </c>
+      <c r="E34" s="2">
+        <v>1.2</v>
+      </c>
+      <c r="F34" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="G34" s="2"/>
+      <c r="H34" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
@@ -788,10 +1360,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -855,6 +1427,17 @@
         <v>39</v>
       </c>
     </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <v>1</v>
+      </c>
+      <c r="C6" t="s">
+        <v>91</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
